--- a/experiments/data/flight_costs_rectifying.xlsx
+++ b/experiments/data/flight_costs_rectifying.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21045" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21045" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flight_costs" sheetId="1" r:id="rId1"/>
@@ -1159,14 +1159,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1266,9 +1262,7 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3001,7 +2995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3104,14 +3098,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>